--- a/DBA/Reportes BI/2021/Facturación/comprobantes a desestimar.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/comprobantes a desestimar.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iachenbach\Desktop\FACOEP\DBA\Reportes BI\2021\Facturación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iachenbach\Gobierno de la Ciudad de Buenos Aires\Pablo Alfredo Gadea - Tablero Facoep P BI\FACOEP\DBA\Reportes BI\2021\Facturación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DBA/Reportes BI/2021/Facturación/comprobantes a desestimar.xlsx
+++ b/DBA/Reportes BI/2021/Facturación/comprobantes a desestimar.xlsx
@@ -24,9 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Listado Comprobantes a desestimar</t>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>prefijo</t>
+  </si>
+  <si>
+    <t>FACB2</t>
   </si>
 </sst>
 </file>
@@ -74,7 +83,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -98,10 +113,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="comprobantes_a_desestimar" displayName="comprobantes_a_desestimar" ref="A1:A15" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
-  <autoFilter ref="A1:A15"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="Listado Comprobantes a desestimar" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="comprobantes_a_desestimar" displayName="comprobantes_a_desestimar" ref="A1:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="2" name="tipo" dataDxfId="1"/>
+    <tableColumn id="3" name="prefijo" dataDxfId="0"/>
+    <tableColumn id="1" name="codigo" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -370,96 +387,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>13295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>13316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>13916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>13941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>14061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>14152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>14754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>15144</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>